--- a/src/PAM.xlsx
+++ b/src/PAM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
   <si>
     <t>PAM_MBM_Worked</t>
   </si>
@@ -194,7 +194,13 @@
     <t>13:35:20 04-10-2023</t>
   </si>
   <si>
-    <t>15:29:05 04-11-2023</t>
+    <t>08:36:26 04-11-2023</t>
+  </si>
+  <si>
+    <t>15:40:34 04-11-2023</t>
+  </si>
+  <si>
+    <t>14:01:12 04-12-2023</t>
   </si>
   <si>
     <t>Automatically Assigned Ticket</t>
@@ -586,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,7 +611,7 @@
         <v>44943.41438657408</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -613,7 +619,7 @@
         <v>44943.69631944445</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -621,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -629,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -637,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -645,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -653,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -661,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -669,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -677,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -685,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -693,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -701,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -709,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -717,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -725,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -733,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -741,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -749,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -757,7 +763,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -765,7 +771,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -773,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -781,7 +787,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -789,7 +795,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -797,7 +803,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -805,7 +811,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -813,7 +819,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -821,7 +827,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -829,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -837,7 +843,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -845,7 +851,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -853,7 +859,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -861,7 +867,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -869,7 +875,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -877,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -885,7 +891,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -893,7 +899,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -901,7 +907,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -909,7 +915,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -917,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -925,7 +931,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -933,7 +939,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -941,7 +947,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -949,7 +955,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -957,7 +963,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -965,7 +971,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -973,7 +979,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -981,7 +987,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -989,7 +995,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -997,7 +1003,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1005,7 +1011,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1013,7 +1019,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1021,7 +1027,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1029,7 +1035,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1037,7 +1043,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1045,7 +1051,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1053,7 +1059,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1061,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1069,7 +1075,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1077,7 +1083,23 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1117,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1106,63 +1128,63 @@
         <v>44944.4203125</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/PAM.xlsx
+++ b/src/PAM.xlsx
@@ -1,16 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB227132-1616-448F-A741-9F2CF6B3535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAM_MBM_Worked" sheetId="1" r:id="rId1"/>
     <sheet name="PAM_UET_Worked" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -23,6 +37,9 @@
     <t>Action</t>
   </si>
   <si>
+    <t>Automatically Assigned Ticket</t>
+  </si>
+  <si>
     <t>09:57:13 01-23-2023</t>
   </si>
   <si>
@@ -71,6 +88,9 @@
     <t>09:58:33 02-27-2023</t>
   </si>
   <si>
+    <t>Manually Assigned Ticket</t>
+  </si>
+  <si>
     <t>10:04:36 02-27-2023</t>
   </si>
   <si>
@@ -201,12 +221,6 @@
   </si>
   <si>
     <t>14:01:12 04-12-2023</t>
-  </si>
-  <si>
-    <t>Automatically Assigned Ticket</t>
-  </si>
-  <si>
-    <t>Manually Assigned Ticket</t>
   </si>
   <si>
     <t>PAM_UET_Worked</t>
@@ -236,9 +250,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -304,6 +318,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -350,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,9 +404,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,6 +456,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,12 +649,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -608,498 +669,498 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44943.41438657408</v>
+        <v>44943.414386574077</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44943.69631944445</v>
+        <v>44943.696319444447</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1125,10 +1186,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44944.4203125</v>
+        <v>44944.420312499999</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1136,7 +1197,7 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1144,7 +1205,7 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1152,7 +1213,7 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1160,7 +1221,7 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1168,7 +1229,7 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1176,7 +1237,7 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1184,7 +1245,7 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/PAM.xlsx
+++ b/src/PAM.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB227132-1616-448F-A741-9F2CF6B3535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="PAM_MBM_Worked" sheetId="1" r:id="rId1"/>
     <sheet name="PAM_UET_Worked" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
   <si>
     <t>PAM_MBM_Worked</t>
   </si>
@@ -37,190 +23,193 @@
     <t>Action</t>
   </si>
   <si>
+    <t>09:57:13 01-23-2023</t>
+  </si>
+  <si>
+    <t>17:03:58 01-24-2023</t>
+  </si>
+  <si>
+    <t>09:56:58 01-30-2023</t>
+  </si>
+  <si>
+    <t>16:22:12 01-30-2023</t>
+  </si>
+  <si>
+    <t>09:49:08 02-06-2023</t>
+  </si>
+  <si>
+    <t>16:38:14 02-06-2023</t>
+  </si>
+  <si>
+    <t>14:08:24 02-09-2023</t>
+  </si>
+  <si>
+    <t>09:54:35 02-13-2023</t>
+  </si>
+  <si>
+    <t>17:09:10 02-13-2023</t>
+  </si>
+  <si>
+    <t>16:55:24 02-14-2023</t>
+  </si>
+  <si>
+    <t>09:50:31 02-16-2023</t>
+  </si>
+  <si>
+    <t>10:01:13 02-20-2023</t>
+  </si>
+  <si>
+    <t>11:24:22 02-21-2023</t>
+  </si>
+  <si>
+    <t>14:23:52 02-22-2023</t>
+  </si>
+  <si>
+    <t>09:56:25 02-23-2023</t>
+  </si>
+  <si>
+    <t>09:58:33 02-27-2023</t>
+  </si>
+  <si>
+    <t>10:04:36 02-27-2023</t>
+  </si>
+  <si>
+    <t>09:52:33 02-28-2023</t>
+  </si>
+  <si>
+    <t>09:59:51 03-02-2023</t>
+  </si>
+  <si>
+    <t>11:36:16 03-03-2023</t>
+  </si>
+  <si>
+    <t>10:03:06 03-06-2023</t>
+  </si>
+  <si>
+    <t>10:00:39 03-07-2023</t>
+  </si>
+  <si>
+    <t>09:58:57 03-09-2023</t>
+  </si>
+  <si>
+    <t>15:50:06 03-10-2023</t>
+  </si>
+  <si>
+    <t>10:06:41 03-13-2023</t>
+  </si>
+  <si>
+    <t>09:54:42 03-14-2023</t>
+  </si>
+  <si>
+    <t>16:47:56 03-15-2023</t>
+  </si>
+  <si>
+    <t>14:46:25 03-16-2023</t>
+  </si>
+  <si>
+    <t>17:46:13 03-16-2023</t>
+  </si>
+  <si>
+    <t>10:05:22 03-17-2023</t>
+  </si>
+  <si>
+    <t>10:59:34 03-17-2023</t>
+  </si>
+  <si>
+    <t>16:42:53 03-17-2023</t>
+  </si>
+  <si>
+    <t>08:37:54 03-20-2023</t>
+  </si>
+  <si>
+    <t>08:55:57 03-20-2023</t>
+  </si>
+  <si>
+    <t>15:03:33 03-21-2023</t>
+  </si>
+  <si>
+    <t>08:33:49 03-23-2023</t>
+  </si>
+  <si>
+    <t>08:32:31 03-24-2023</t>
+  </si>
+  <si>
+    <t>08:35:43 03-27-2023</t>
+  </si>
+  <si>
+    <t>08:48:53 03-27-2023</t>
+  </si>
+  <si>
+    <t>08:41:54 03-28-2023</t>
+  </si>
+  <si>
+    <t>08:46:54 03-28-2023</t>
+  </si>
+  <si>
+    <t>08:52:15 03-28-2023</t>
+  </si>
+  <si>
+    <t>08:27:23 03-29-2023</t>
+  </si>
+  <si>
+    <t>10:38:57 03-30-2023</t>
+  </si>
+  <si>
+    <t>10:13:20 03-31-2023</t>
+  </si>
+  <si>
+    <t>08:35:35 04-03-2023</t>
+  </si>
+  <si>
+    <t>08:42:02 04-03-2023</t>
+  </si>
+  <si>
+    <t>08:46:31 04-03-2023</t>
+  </si>
+  <si>
+    <t>13:46:49 04-04-2023</t>
+  </si>
+  <si>
+    <t>08:35:31 04-05-2023</t>
+  </si>
+  <si>
+    <t>08:29:28 04-06-2023</t>
+  </si>
+  <si>
+    <t>16:02:49 04-06-2023</t>
+  </si>
+  <si>
+    <t>15:59:49 04-07-2023</t>
+  </si>
+  <si>
+    <t>08:35:10 04-10-2023</t>
+  </si>
+  <si>
+    <t>08:41:18 04-10-2023</t>
+  </si>
+  <si>
+    <t>08:45:33 04-10-2023</t>
+  </si>
+  <si>
+    <t>13:35:20 04-10-2023</t>
+  </si>
+  <si>
+    <t>08:36:26 04-11-2023</t>
+  </si>
+  <si>
+    <t>15:40:34 04-11-2023</t>
+  </si>
+  <si>
+    <t>14:01:12 04-12-2023</t>
+  </si>
+  <si>
+    <t>08:38:06 04-13-2023</t>
+  </si>
+  <si>
     <t>Automatically Assigned Ticket</t>
   </si>
   <si>
-    <t>09:57:13 01-23-2023</t>
-  </si>
-  <si>
-    <t>17:03:58 01-24-2023</t>
-  </si>
-  <si>
-    <t>09:56:58 01-30-2023</t>
-  </si>
-  <si>
-    <t>16:22:12 01-30-2023</t>
-  </si>
-  <si>
-    <t>09:49:08 02-06-2023</t>
-  </si>
-  <si>
-    <t>16:38:14 02-06-2023</t>
-  </si>
-  <si>
-    <t>14:08:24 02-09-2023</t>
-  </si>
-  <si>
-    <t>09:54:35 02-13-2023</t>
-  </si>
-  <si>
-    <t>17:09:10 02-13-2023</t>
-  </si>
-  <si>
-    <t>16:55:24 02-14-2023</t>
-  </si>
-  <si>
-    <t>09:50:31 02-16-2023</t>
-  </si>
-  <si>
-    <t>10:01:13 02-20-2023</t>
-  </si>
-  <si>
-    <t>11:24:22 02-21-2023</t>
-  </si>
-  <si>
-    <t>14:23:52 02-22-2023</t>
-  </si>
-  <si>
-    <t>09:56:25 02-23-2023</t>
-  </si>
-  <si>
-    <t>09:58:33 02-27-2023</t>
-  </si>
-  <si>
     <t>Manually Assigned Ticket</t>
-  </si>
-  <si>
-    <t>10:04:36 02-27-2023</t>
-  </si>
-  <si>
-    <t>09:52:33 02-28-2023</t>
-  </si>
-  <si>
-    <t>09:59:51 03-02-2023</t>
-  </si>
-  <si>
-    <t>11:36:16 03-03-2023</t>
-  </si>
-  <si>
-    <t>10:03:06 03-06-2023</t>
-  </si>
-  <si>
-    <t>10:00:39 03-07-2023</t>
-  </si>
-  <si>
-    <t>09:58:57 03-09-2023</t>
-  </si>
-  <si>
-    <t>15:50:06 03-10-2023</t>
-  </si>
-  <si>
-    <t>10:06:41 03-13-2023</t>
-  </si>
-  <si>
-    <t>09:54:42 03-14-2023</t>
-  </si>
-  <si>
-    <t>16:47:56 03-15-2023</t>
-  </si>
-  <si>
-    <t>14:46:25 03-16-2023</t>
-  </si>
-  <si>
-    <t>17:46:13 03-16-2023</t>
-  </si>
-  <si>
-    <t>10:05:22 03-17-2023</t>
-  </si>
-  <si>
-    <t>10:59:34 03-17-2023</t>
-  </si>
-  <si>
-    <t>16:42:53 03-17-2023</t>
-  </si>
-  <si>
-    <t>08:37:54 03-20-2023</t>
-  </si>
-  <si>
-    <t>08:55:57 03-20-2023</t>
-  </si>
-  <si>
-    <t>15:03:33 03-21-2023</t>
-  </si>
-  <si>
-    <t>08:33:49 03-23-2023</t>
-  </si>
-  <si>
-    <t>08:32:31 03-24-2023</t>
-  </si>
-  <si>
-    <t>08:35:43 03-27-2023</t>
-  </si>
-  <si>
-    <t>08:48:53 03-27-2023</t>
-  </si>
-  <si>
-    <t>08:41:54 03-28-2023</t>
-  </si>
-  <si>
-    <t>08:46:54 03-28-2023</t>
-  </si>
-  <si>
-    <t>08:52:15 03-28-2023</t>
-  </si>
-  <si>
-    <t>08:27:23 03-29-2023</t>
-  </si>
-  <si>
-    <t>10:38:57 03-30-2023</t>
-  </si>
-  <si>
-    <t>10:13:20 03-31-2023</t>
-  </si>
-  <si>
-    <t>08:35:35 04-03-2023</t>
-  </si>
-  <si>
-    <t>08:42:02 04-03-2023</t>
-  </si>
-  <si>
-    <t>08:46:31 04-03-2023</t>
-  </si>
-  <si>
-    <t>13:46:49 04-04-2023</t>
-  </si>
-  <si>
-    <t>08:35:31 04-05-2023</t>
-  </si>
-  <si>
-    <t>08:29:28 04-06-2023</t>
-  </si>
-  <si>
-    <t>16:02:49 04-06-2023</t>
-  </si>
-  <si>
-    <t>15:59:49 04-07-2023</t>
-  </si>
-  <si>
-    <t>08:35:10 04-10-2023</t>
-  </si>
-  <si>
-    <t>08:41:18 04-10-2023</t>
-  </si>
-  <si>
-    <t>08:45:33 04-10-2023</t>
-  </si>
-  <si>
-    <t>13:35:20 04-10-2023</t>
-  </si>
-  <si>
-    <t>08:36:26 04-11-2023</t>
-  </si>
-  <si>
-    <t>15:40:34 04-11-2023</t>
-  </si>
-  <si>
-    <t>14:01:12 04-12-2023</t>
   </si>
   <si>
     <t>PAM_UET_Worked</t>
@@ -250,9 +239,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -318,14 +307,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -372,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,27 +385,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,24 +419,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -649,15 +594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -669,498 +611,506 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44943.414386574077</v>
+        <v>44943.41438657408</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44943.696319444447</v>
+        <v>44943.69631944445</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1178,7 +1128,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1186,66 +1136,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44944.420312499999</v>
+        <v>44944.4203125</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/src/PAM.xlsx
+++ b/src/PAM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
   <si>
     <t>PAM_MBM_Worked</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>08:38:06 04-13-2023</t>
+  </si>
+  <si>
+    <t>08:31:52 04-14-2023</t>
+  </si>
+  <si>
+    <t>08:34:52 04-14-2023</t>
   </si>
   <si>
     <t>Automatically Assigned Ticket</t>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -614,7 +620,7 @@
         <v>44943.41438657408</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -622,7 +628,7 @@
         <v>44943.69631944445</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -630,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -638,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -646,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -654,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -662,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -670,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -678,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -686,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -694,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -702,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -710,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -718,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -726,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -734,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -742,7 +748,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -750,7 +756,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -758,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -766,7 +772,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -774,7 +780,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -782,7 +788,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -790,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -798,7 +804,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -806,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -814,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -822,7 +828,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -830,7 +836,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -838,7 +844,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -846,7 +852,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -854,7 +860,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -862,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -870,7 +876,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -878,7 +884,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -886,7 +892,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -894,7 +900,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -902,7 +908,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -910,7 +916,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -918,7 +924,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -926,7 +932,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -934,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -942,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -950,7 +956,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -958,7 +964,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -966,7 +972,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -974,7 +980,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -982,7 +988,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -990,7 +996,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -998,7 +1004,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1006,7 +1012,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1014,7 +1020,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1022,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1030,7 +1036,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1038,7 +1044,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1046,7 +1052,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1054,7 +1060,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1062,7 +1068,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1070,7 +1076,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1078,7 +1084,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1086,7 +1092,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1094,7 +1100,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1102,7 +1108,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1110,7 +1116,23 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +1150,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1139,63 +1161,63 @@
         <v>44944.4203125</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
